--- a/Nifty Valuation.xlsx
+++ b/Nifty Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akshay\CFA\AVFM\Index Valuation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Akshay\CFA\AVFM\Projects - Locked for Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2478C644-3BF2-461F-A94D-20A2E9AC7B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B826B6-44DD-44E9-B7BC-E2C7CD3CE39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="1" xr2:uid="{BA95A1E0-3675-4ECE-9B64-C54557FBC62F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="789" activeTab="8" xr2:uid="{BA95A1E0-3675-4ECE-9B64-C54557FBC62F}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation&gt;" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2025 BB Data'!$B$2:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Nifty Historical'!$B$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="9.9999999999999998E-20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -892,6 +892,7 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6825,8 +6826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE1D1E1-19EA-4BCE-9FC1-D4394C127827}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6842,21 +6843,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="28">
         <f>IF(OR(C5="",C6="",C7="",C8="",C9=""),"Provide Input Data",SUM(E12:E22))</f>
         <v>33157.104972402769</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="27" t="s">
         <v>150</v>
       </c>
@@ -6883,13 +6884,13 @@
       </c>
       <c r="C4" s="36">
         <f ca="1">TODAY()</f>
-        <v>45804</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="31">
         <f ca="1">C4</f>
-        <v>45804</v>
-      </c>
-      <c r="E4" s="54" t="str">
+        <v>45919</v>
+      </c>
+      <c r="E4" s="55" t="str">
         <f>IF(OR(C5="",C6="",C7="",C8="",C9=""),"Provide Input Data","The market implied fair value of Nifty is "&amp;ROUNDUP(E2,0)&amp;". The Nifty is currently trading at "&amp;ROUNDUP(D5,0)&amp;". A "&amp;TEXT(ABS((D5-E2)/D5),"0.00%"))&amp;" "&amp;IF(E3="undervalued",
 "appreciation",IF(E3="Overvalued","correction","adjustment"))&amp;" is expected from this level."</f>
         <v>The market implied fair value of Nifty is 33158. The Nifty is currently trading at 24008. A 38.11% appreciation is expected from this level.</v>
@@ -6918,7 +6919,7 @@
         <f>C5</f>
         <v>24008</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="I5" s="26" t="s">
         <v>109</v>
       </c>
@@ -6943,7 +6944,7 @@
         <f>VLOOKUP(C6,'ExpectedDiv&amp;BB'!K3:L13,2,0)</f>
         <v>1.5177651531123609E-2</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="I6" s="26" t="s">
         <v>121</v>
       </c>
@@ -6968,7 +6969,7 @@
         <f>VLOOKUP(C7,NiftyEPSGrowth!L3:M9,2,0)</f>
         <v>0.10202008706451099</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="I7" s="26" t="s">
         <v>110</v>
       </c>
@@ -6993,7 +6994,7 @@
         <f>VLOOKUP(C8,'Rf Historical'!I4:J12,2,0)</f>
         <v>6.448000000000001E-2</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="I8" s="26" t="s">
         <v>111</v>
       </c>
@@ -7016,7 +7017,7 @@
         <f>VLOOKUP(C9,'ERP Historical'!F4:G12,2,0)</f>
         <v>1.67E-2</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="I9" s="26" t="s">
         <v>143</v>
       </c>
@@ -7033,7 +7034,7 @@
         <f>SUM(D8:D9)</f>
         <v>8.1180000000000002E-2</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
@@ -7247,6 +7248,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ki/IXqUKTVmxm2sqpbMr67fvEPx9vZLzooUlDudz4CmYV140slXnDWS/qUJ6Hm5f2M7vgbVmGINuayRZXzHraA==" saltValue="yeyxbqbzER8UQw+vEEzaDg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
@@ -7302,7 +7304,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7363,7 +7365,7 @@
         <f>SUM(E3:F3)</f>
         <v>20.058782163295955</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="52">
         <f>G3/C3</f>
         <v>1.4421311306998788E-2</v>
       </c>
@@ -7400,7 +7402,7 @@
         <f t="shared" ref="G4:G28" si="1">SUM(E4:F4)</f>
         <v>15.574423923612006</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="52">
         <f t="shared" ref="H4:H28" si="2">G4/C4</f>
         <v>1.393590937844172E-2</v>
       </c>
@@ -7427,7 +7429,7 @@
         <f t="shared" si="1"/>
         <v>21.728465742573555</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="52">
         <f t="shared" si="2"/>
         <v>2.0783177550326219E-2</v>
       </c>
@@ -7464,7 +7466,7 @@
         <f t="shared" si="1"/>
         <v>34.239527594485679</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="52">
         <f t="shared" si="2"/>
         <v>2.708671594312213E-2</v>
       </c>
@@ -7491,7 +7493,7 @@
         <f t="shared" si="1"/>
         <v>41.986605539768675</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="52">
         <f t="shared" si="2"/>
         <v>2.3988919034291487E-2</v>
       </c>
@@ -7528,7 +7530,7 @@
         <f t="shared" si="1"/>
         <v>48.2391858164967</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="52">
         <f t="shared" si="2"/>
         <v>2.0999999267119301E-2</v>
       </c>
@@ -7555,7 +7557,7 @@
         <f t="shared" si="1"/>
         <v>56.687263087166066</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="52">
         <f t="shared" si="2"/>
         <v>1.6572921330273153E-2</v>
       </c>
@@ -7592,7 +7594,7 @@
         <f t="shared" si="1"/>
         <v>60.006008690022789</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="52">
         <f t="shared" si="2"/>
         <v>1.282002758309303E-2</v>
       </c>
@@ -7619,7 +7621,7 @@
         <f t="shared" si="1"/>
         <v>64.659589340664809</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="52">
         <f t="shared" si="2"/>
         <v>1.5399417935299047E-2</v>
       </c>
@@ -7656,7 +7658,7 @@
         <f t="shared" si="1"/>
         <v>67.067641289766186</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="52">
         <f t="shared" si="2"/>
         <v>1.6031674356908613E-2</v>
       </c>
@@ -7683,7 +7685,7 @@
         <f t="shared" si="1"/>
         <v>63.690816075213206</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="52">
         <f t="shared" si="2"/>
         <v>1.1660517611576739E-2</v>
       </c>
@@ -7720,7 +7722,7 @@
         <f t="shared" si="1"/>
         <v>81.551805021150415</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="52">
         <f t="shared" si="2"/>
         <v>1.532949076317283E-2</v>
       </c>
@@ -7747,7 +7749,7 @@
         <f t="shared" si="1"/>
         <v>95.358863134638455</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="52">
         <f t="shared" si="2"/>
         <v>1.7624574734075884E-2</v>
       </c>
@@ -7774,7 +7776,7 @@
         <f t="shared" si="1"/>
         <v>100.11866110919458</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="52">
         <f t="shared" si="2"/>
         <v>1.6946035601062875E-2</v>
       </c>
@@ -7801,7 +7803,7 @@
         <f t="shared" si="1"/>
         <v>117.786747129267</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="52">
         <f t="shared" si="2"/>
         <v>1.5802886291624949E-2</v>
       </c>
@@ -7828,7 +7830,7 @@
         <f t="shared" si="1"/>
         <v>134.4778024735908</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="52">
         <f t="shared" si="2"/>
         <v>1.6204447014139957E-2</v>
       </c>
@@ -7855,7 +7857,7 @@
         <f t="shared" si="1"/>
         <v>130.51955334900816</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="52">
         <f t="shared" si="2"/>
         <v>1.6037873202927527E-2</v>
       </c>
@@ -7882,7 +7884,7 @@
         <f t="shared" si="1"/>
         <v>128.77261199277001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="52">
         <f t="shared" si="2"/>
         <v>1.332854346682457E-2</v>
       </c>
@@ -7909,7 +7911,7 @@
         <f t="shared" si="1"/>
         <v>151.90733337831458</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="52">
         <f t="shared" si="2"/>
         <v>1.4031130553257491E-2</v>
       </c>
@@ -7936,7 +7938,7 @@
         <f t="shared" si="1"/>
         <v>168.83035495768956</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="52">
         <f t="shared" si="2"/>
         <v>1.4635847474529669E-2</v>
       </c>
@@ -7963,7 +7965,7 @@
         <f t="shared" si="1"/>
         <v>186.3999700136558</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="52">
         <f t="shared" si="2"/>
         <v>1.6716798936993394E-2</v>
       </c>
@@ -7990,7 +7992,7 @@
         <f t="shared" si="1"/>
         <v>205.31505430816145</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="52">
         <f t="shared" si="2"/>
         <v>1.287832817569578E-2</v>
       </c>
@@ -8017,7 +8019,7 @@
         <f t="shared" si="1"/>
         <v>261.71835655748959</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="52">
         <f t="shared" si="2"/>
         <v>1.5102504975580489E-2</v>
       </c>
@@ -8044,7 +8046,7 @@
         <f t="shared" si="1"/>
         <v>305.82335319205475</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="52">
         <f t="shared" si="2"/>
         <v>1.6116864865799257E-2</v>
       </c>
@@ -8071,7 +8073,7 @@
         <f t="shared" si="1"/>
         <v>339.83232949430027</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="52">
         <f t="shared" si="2"/>
         <v>1.4401673515892575E-2</v>
       </c>
@@ -8098,12 +8100,13 @@
         <f t="shared" si="1"/>
         <v>375.08511283411372</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="52">
         <f t="shared" si="2"/>
         <v>1.5911472233744339E-2</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="abw75c+hzG+b7H6Bu+zqzd7PEB5WUvXnIQCk3pBlk8tVjMxjhH3E20BCCE+7OIpSgiZuPUxc05GyakWQIfv8Qg==" saltValue="qvhhUGRkIM/UeeJLmm35lA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8994,6 +8997,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="y1mZmV9Cmq2unHUYqV+6KB8cHvut4crwh+T17hgVDO1VPWUISxWKr4EVpi0pRwq0V96cn726ehz3UOFv6Y2FKg==" saltValue="fVrZKyvA07mSZ5tGkJQlVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9004,7 +9008,7 @@
   <dimension ref="B2:L309"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13058,6 +13062,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="xufuecRnTO5Cqp4lkJAUlacv4m/UwYxK7gvhJDYupj7iXELo/sJJdWBeH9Hn6sqEd7Cxk/AOtPqsWSnxTIoGUw==" saltValue="mKKAhqpVU78WRM6kQzSOAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13068,7 +13073,7 @@
   <dimension ref="B2:J310"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13080,10 +13085,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -15802,6 +15807,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Gs5a/coyDHoZ7PYksj4V2KI3J5IB6HExiK73gnPYifaUVBOtoacqzX6Uazxfn9DZfFqqyR+X0wO4o846TrIASg==" saltValue="Xhb6q/oSqwZG6mVruwUwqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
@@ -15815,7 +15821,7 @@
   <dimension ref="B2:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15827,10 +15833,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -16104,6 +16110,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Y3+BQXCUE3teAX7/wpeVJa96/jgYfj2PYMgp88ymwWvwY9w7Vzia28yogmzMDGVk/JdRoCYkr2EA7KNJ2JmOMA==" saltValue="wsRpWH3rVy+EEgqfUMAyCg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
@@ -16116,8 +16123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EB6423-3309-4275-ABF3-1868AF7825B7}">
   <dimension ref="B2:J98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14 D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18242,6 +18249,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cwCIHgpl/hXIJyygCCWg1146zlddwVv0oHJle857+IWrDusiVUdWcNaySXkHvCvQpaKlQ/8oWsRjaIkKEDzRoQ==" saltValue="LR1ztuQ+vWcK/Z4jgoWdUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>